--- a/resources/public/files/suite.amiba.doc.biz.xlsx
+++ b/resources/public/files/suite.amiba.doc.biz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\suite\suite-laravel\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\suite\suite-cbo\resources\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,85 +248,85 @@
     <t>2017-01-01</t>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>因素1</t>
+  </si>
+  <si>
+    <t>因素2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因素3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据编号*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据日期*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>因素1</t>
-  </si>
-  <si>
-    <t>因素2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因素3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factor3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doc_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biz_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>direction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doc_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doc_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据编号*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据日期*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务类型*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +832,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -849,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -897,7 +897,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>25</v>
@@ -921,16 +921,16 @@
         <v>35</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -938,22 +938,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>6</v>
@@ -1010,16 +1010,16 @@
         <v>38</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>43</v>
@@ -1039,10 +1039,10 @@
         <v>39</v>
       </c>
       <c r="W3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="Y3" s="13">
         <f>W3*X3</f>
@@ -1066,10 +1066,10 @@
         <v>40</v>
       </c>
       <c r="W4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="Y4" s="13">
         <f>W4*X4</f>
